--- a/Quadtree/Quadtree_Stories.xlsx
+++ b/Quadtree/Quadtree_Stories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>done?</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -529,13 +532,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -885,10 +889,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -902,10 +906,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -919,10 +923,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -936,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -953,10 +957,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -970,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -987,10 +991,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1004,10 +1008,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1021,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5"/>
     </row>
@@ -1036,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E31" s="5"/>
     </row>
@@ -1075,7 +1079,8 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6">
-        <v>84</v>
+        <f>SUM(D2:D33)</f>
+        <v>81</v>
       </c>
       <c r="E34" s="5"/>
     </row>
